--- a/F_dataset/DUD-E/WEE1/WEE1_prepare/WEE1_active.xlsx
+++ b/F_dataset/DUD-E/WEE1/WEE1_prepare/WEE1_active.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T113"/>
+  <dimension ref="A1:T103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6451,846 +6451,6 @@
       <c r="S103" t="inlineStr"/>
       <c r="T103" t="inlineStr"/>
     </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>CHEMBL369296</t>
-        </is>
-      </c>
-      <c r="B104" t="n">
-        <v>1</v>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>Cn1c(=O)c(-c2c(Cl)cccc2Cl)cc2cnc(Nc3ccc(OCC(N)=O)cc3)nc21</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>Cn1c(=O)c(-c2c(Cl)cccc2Cl)cc2cnc(Nc3ccc(OCC(N)=O)cc3)nc21</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G104" t="n">
-        <v>470.32</v>
-      </c>
-      <c r="H104" t="n">
-        <v>2</v>
-      </c>
-      <c r="I104" t="n">
-        <v>6</v>
-      </c>
-      <c r="J104" t="n">
-        <v>6</v>
-      </c>
-      <c r="K104" t="n">
-        <v>4</v>
-      </c>
-      <c r="L104" t="n">
-        <v>4</v>
-      </c>
-      <c r="M104" t="n">
-        <v>112.13</v>
-      </c>
-      <c r="N104" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O104" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P104" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q104" t="n">
-        <v>250</v>
-      </c>
-      <c r="R104" t="inlineStr">
-        <is>
-          <t>CHEMBL829373</t>
-        </is>
-      </c>
-      <c r="S104" t="inlineStr">
-        <is>
-          <t>Inhibition of checkpoint kinase Wee1</t>
-        </is>
-      </c>
-      <c r="T104" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>CHEMBL1976040</t>
-        </is>
-      </c>
-      <c r="B105" t="n">
-        <v>1</v>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>C=CCn1c(=O)c2cnc(Nc3ccc(N4CCN(C)CC4)cc3)nc2n1-c1cccc(C(C)(C)O)n1</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>C=CCn1c(=O)c2cnc(Nc3ccc(N4CCN(C)CC4)cc3)nc2n1-c1cccc(C(C)(C)O)n1</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G105" t="n">
-        <v>500.61</v>
-      </c>
-      <c r="H105" t="n">
-        <v>2</v>
-      </c>
-      <c r="I105" t="n">
-        <v>8</v>
-      </c>
-      <c r="J105" t="n">
-        <v>7</v>
-      </c>
-      <c r="K105" t="n">
-        <v>5</v>
-      </c>
-      <c r="L105" t="n">
-        <v>4</v>
-      </c>
-      <c r="M105" t="n">
-        <v>104.34</v>
-      </c>
-      <c r="N105" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O105" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P105" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q105" t="n">
-        <v>36.7</v>
-      </c>
-      <c r="R105" t="inlineStr">
-        <is>
-          <t>CHEMBL4233140</t>
-        </is>
-      </c>
-      <c r="S105" t="inlineStr">
-        <is>
-          <t>Inhibition of recombinant human Wee1 using poly(Lys,Tyr) as substrate after 30 mins in presence of [gamma-33P]-ATP by liquid scintillation counting method</t>
-        </is>
-      </c>
-      <c r="T105" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>CHEMBL211878</t>
-        </is>
-      </c>
-      <c r="B106" t="n">
-        <v>1</v>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>COc1ccc2[nH]c3cc(-c4ccccc4Cl)c4c(c3c2c1)C(=O)NC4=O</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>COc1ccc2[nH]c3cc(-c4ccccc4Cl)c4c(c3c2c1)C(=O)NC4=O</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G106" t="n">
-        <v>376.8</v>
-      </c>
-      <c r="H106" t="n">
-        <v>2</v>
-      </c>
-      <c r="I106" t="n">
-        <v>3</v>
-      </c>
-      <c r="J106" t="n">
-        <v>2</v>
-      </c>
-      <c r="K106" t="n">
-        <v>5</v>
-      </c>
-      <c r="L106" t="n">
-        <v>4</v>
-      </c>
-      <c r="M106" t="n">
-        <v>71.19</v>
-      </c>
-      <c r="N106" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O106" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P106" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q106" t="n">
-        <v>641.88</v>
-      </c>
-      <c r="R106" t="inlineStr">
-        <is>
-          <t>CHEMBL1006579</t>
-        </is>
-      </c>
-      <c r="S106" t="inlineStr">
-        <is>
-          <t>Inhibition of human Wee1</t>
-        </is>
-      </c>
-      <c r="T106" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>CHEMBL214341</t>
-        </is>
-      </c>
-      <c r="B107" t="n">
-        <v>1</v>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>Cc1c(-c2ccccc2)c2c(c3c1[nH]c1ccc(O)cc13)C(=O)NC2=O</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>Cc1c(-c2ccccc2)c2c(c3c1[nH]c1ccc(O)cc13)C(=O)NC2=O</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G107" t="n">
-        <v>342.35</v>
-      </c>
-      <c r="H107" t="n">
-        <v>3</v>
-      </c>
-      <c r="I107" t="n">
-        <v>3</v>
-      </c>
-      <c r="J107" t="n">
-        <v>1</v>
-      </c>
-      <c r="K107" t="n">
-        <v>5</v>
-      </c>
-      <c r="L107" t="n">
-        <v>4</v>
-      </c>
-      <c r="M107" t="n">
-        <v>82.19</v>
-      </c>
-      <c r="N107" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O107" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P107" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q107" t="n">
-        <v>129.61</v>
-      </c>
-      <c r="R107" t="inlineStr">
-        <is>
-          <t>CHEMBL864855</t>
-        </is>
-      </c>
-      <c r="S107" t="inlineStr">
-        <is>
-          <t>Inhibition of human Wee1 in presence of 9.5 uM ATP</t>
-        </is>
-      </c>
-      <c r="T107" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>CHEMBL512341</t>
-        </is>
-      </c>
-      <c r="B108" t="n">
-        <v>1</v>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>COc1ccccc1-c1cc2c(c3c1C(=O)NC3=O)c1cc(O)ccc1n2CCCO</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>COc1ccccc1-c1cc2c(c3c1C(=O)NC3=O)c1cc(O)ccc1n2CCCO</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G108" t="n">
-        <v>416.43</v>
-      </c>
-      <c r="H108" t="n">
-        <v>3</v>
-      </c>
-      <c r="I108" t="n">
-        <v>5</v>
-      </c>
-      <c r="J108" t="n">
-        <v>5</v>
-      </c>
-      <c r="K108" t="n">
-        <v>5</v>
-      </c>
-      <c r="L108" t="n">
-        <v>4</v>
-      </c>
-      <c r="M108" t="n">
-        <v>100.79</v>
-      </c>
-      <c r="N108" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O108" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P108" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q108" t="n">
-        <v>30.07</v>
-      </c>
-      <c r="R108" t="inlineStr">
-        <is>
-          <t>CHEMBL1000360</t>
-        </is>
-      </c>
-      <c r="S108" t="inlineStr">
-        <is>
-          <t>Inhibition of human Wee1 assessed as polyornithine-tyrosine copolymer phosphorylation</t>
-        </is>
-      </c>
-      <c r="T108" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>CHEMBL400146</t>
-        </is>
-      </c>
-      <c r="B109" t="n">
-        <v>1</v>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>Cc1cc(=O)c2c(O)cc3c(c2o1)C(=O)c1c(O)cc(O)cc1C3=O</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>Cc1cc(=O)c2c(O)cc3c(c2o1)C(=O)c1c(O)cc(O)cc1C3=O</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G109" t="n">
-        <v>338.27</v>
-      </c>
-      <c r="H109" t="n">
-        <v>3</v>
-      </c>
-      <c r="I109" t="n">
-        <v>7</v>
-      </c>
-      <c r="J109" t="n">
-        <v>0</v>
-      </c>
-      <c r="K109" t="n">
-        <v>4</v>
-      </c>
-      <c r="L109" t="n">
-        <v>4</v>
-      </c>
-      <c r="M109" t="n">
-        <v>125.04</v>
-      </c>
-      <c r="N109" t="inlineStr">
-        <is>
-          <t>Kd</t>
-        </is>
-      </c>
-      <c r="O109" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P109" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q109" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="R109" t="inlineStr">
-        <is>
-          <t>CHEMBL1815757</t>
-        </is>
-      </c>
-      <c r="S109" t="inlineStr">
-        <is>
-          <t>Binding affinity to weel kinase</t>
-        </is>
-      </c>
-      <c r="T109" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>CHEMBL288441</t>
-        </is>
-      </c>
-      <c r="B110" t="n">
-        <v>1</v>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>COc1cc(Nc2c(C#N)cnc3cc(OCCCN4CCN(C)CC4)c(OC)cc23)c(Cl)cc1Cl</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>COc1cc(Nc2c(C#N)cnc3cc(OCCCN4CCN(C)CC4)c(OC)cc23)c(Cl)cc1Cl</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G110" t="n">
-        <v>530.46</v>
-      </c>
-      <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>8</v>
-      </c>
-      <c r="J110" t="n">
-        <v>9</v>
-      </c>
-      <c r="K110" t="n">
-        <v>4</v>
-      </c>
-      <c r="L110" t="n">
-        <v>3</v>
-      </c>
-      <c r="M110" t="n">
-        <v>82.88</v>
-      </c>
-      <c r="N110" t="inlineStr">
-        <is>
-          <t>Kd</t>
-        </is>
-      </c>
-      <c r="O110" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P110" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q110" t="n">
-        <v>510</v>
-      </c>
-      <c r="R110" t="inlineStr">
-        <is>
-          <t>CHEMBL1908611</t>
-        </is>
-      </c>
-      <c r="S110" t="inlineStr">
-        <is>
-          <t>Binding constant for WEE1 kinase domain</t>
-        </is>
-      </c>
-      <c r="T110" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>CHEMBL1287853</t>
-        </is>
-      </c>
-      <c r="B111" t="n">
-        <v>1</v>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>Cc1cnc(Nc2ccc(OCCN3CCCC3)cc2)nc1Nc1cccc(S(=O)(=O)NC(C)(C)C)c1</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>Cc1cnc(Nc2ccc(OCCN3CCCC3)cc2)nc1Nc1cccc(S(=O)(=O)NC(C)(C)C)c1</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G111" t="n">
-        <v>524.6900000000001</v>
-      </c>
-      <c r="H111" t="n">
-        <v>3</v>
-      </c>
-      <c r="I111" t="n">
-        <v>8</v>
-      </c>
-      <c r="J111" t="n">
-        <v>10</v>
-      </c>
-      <c r="K111" t="n">
-        <v>4</v>
-      </c>
-      <c r="L111" t="n">
-        <v>3</v>
-      </c>
-      <c r="M111" t="n">
-        <v>108.48</v>
-      </c>
-      <c r="N111" t="inlineStr">
-        <is>
-          <t>Kd</t>
-        </is>
-      </c>
-      <c r="O111" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P111" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q111" t="n">
-        <v>390</v>
-      </c>
-      <c r="R111" t="inlineStr">
-        <is>
-          <t>CHEMBL1908611</t>
-        </is>
-      </c>
-      <c r="S111" t="inlineStr">
-        <is>
-          <t>Binding constant for WEE1 kinase domain</t>
-        </is>
-      </c>
-      <c r="T111" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>CHEMBL3355519</t>
-        </is>
-      </c>
-      <c r="B112" t="n">
-        <v>1</v>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>O=c1c2cnc(Nc3ccccc3)nc2n2ccnc2n1-c1ccccc1Cl</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>O=c1c2cnc(Nc3ccccc3)nc2n2ccnc2n1-c1ccccc1Cl</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G112" t="n">
-        <v>388.82</v>
-      </c>
-      <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="n">
-        <v>5</v>
-      </c>
-      <c r="J112" t="n">
-        <v>3</v>
-      </c>
-      <c r="K112" t="n">
-        <v>5</v>
-      </c>
-      <c r="L112" t="n">
-        <v>5</v>
-      </c>
-      <c r="M112" t="n">
-        <v>77.11</v>
-      </c>
-      <c r="N112" t="inlineStr">
-        <is>
-          <t>Ki</t>
-        </is>
-      </c>
-      <c r="O112" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P112" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q112" t="n">
-        <v>21</v>
-      </c>
-      <c r="R112" t="inlineStr">
-        <is>
-          <t>CHEMBL3372984</t>
-        </is>
-      </c>
-      <c r="S112" t="inlineStr">
-        <is>
-          <t>Inhibition of GST-tagged human Wee1</t>
-        </is>
-      </c>
-      <c r="T112" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>CHEMBL475251</t>
-        </is>
-      </c>
-      <c r="B113" t="n">
-        <v>1</v>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>COc1cc(Nc2ncc(F)c(Nc3ccc4c(n3)NC(=O)C(C)(C)O4)n2)cc(OC)c1OC</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>COc1cc(Nc2ncc(F)c(Nc3ccc4c(n3)NC(=O)C(C)(C)O4)n2)cc(OC)c1OC</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G113" t="n">
-        <v>470.46</v>
-      </c>
-      <c r="H113" t="n">
-        <v>3</v>
-      </c>
-      <c r="I113" t="n">
-        <v>10</v>
-      </c>
-      <c r="J113" t="n">
-        <v>7</v>
-      </c>
-      <c r="K113" t="n">
-        <v>4</v>
-      </c>
-      <c r="L113" t="n">
-        <v>3</v>
-      </c>
-      <c r="M113" t="n">
-        <v>128.75</v>
-      </c>
-      <c r="N113" t="inlineStr">
-        <is>
-          <t>Kd</t>
-        </is>
-      </c>
-      <c r="O113" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P113" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q113" t="n">
-        <v>890</v>
-      </c>
-      <c r="R113" t="inlineStr">
-        <is>
-          <t>CHEMBL1908611</t>
-        </is>
-      </c>
-      <c r="S113" t="inlineStr">
-        <is>
-          <t>Binding constant for WEE1 kinase domain</t>
-        </is>
-      </c>
-      <c r="T113" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
